--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Source</t>
   </si>
@@ -33,16 +33,56 @@
   </si>
   <si>
     <t>Date consultation</t>
+  </si>
+  <si>
+    <t>FortiOS-6.4.12-Administration_Guide.pdf</t>
+  </si>
+  <si>
+    <t>https://fortinetweb.s3.amazonaws.com/docs.fortinet.com/v2/attachments/4df65995-af21-11ed-8e6d-fa163e15d75b/FortiOS-6.4.12-Administration_Guide.pdf</t>
+  </si>
+  <si>
+    <t>I-CT146</t>
+  </si>
+  <si>
+    <t>MA-23</t>
+  </si>
+  <si>
+    <t>I-CT129</t>
+  </si>
+  <si>
+    <t>Mettre en service des composants réseaux</t>
+  </si>
+  <si>
+    <t>Relier une entreprise à internet</t>
+  </si>
+  <si>
+    <t>Pratique réseau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,13 +105,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,31 +395,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45049</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Pratique réseau</t>
+  </si>
+  <si>
+    <t>IPSec vs SSLVPN Fortigate</t>
+  </si>
+  <si>
+    <t>https://www.onlc.com/blog/comparing-ipsec-vs-ssl-vpns/#:~:text=The%20main%20difference%20between%20IPsec,or%20application%20on%20the%20network.</t>
+  </si>
+  <si>
+    <t>FortiOS-6.4.12-CLI-References.pdf</t>
+  </si>
+  <si>
+    <t>https://fortinetweb.s3.amazonaws.com/docs.fortinet.com/v2/attachments/f3d2280a-b3ab-11ed-8e6d-fa163e15d75b/FortiOS-6.4.12-CLI_Reference.pdf</t>
   </si>
 </sst>
 </file>
@@ -395,16 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="147.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,9 +475,33 @@
         <v>45049</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45049</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3" location=":~:text=The%20main%20difference%20between%20IPsec,or%20application%20on%20the%20network."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
